--- a/networkflow2d.xlsx
+++ b/networkflow2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fer/PycharmProjects/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1101439-B943-6841-B7EE-2C0F3DEE039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49DA1D-07AB-E843-B5B7-14AE310A040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertex" sheetId="1" r:id="rId1"/>
@@ -20,41 +20,8 @@
     <sheet name="inflow" sheetId="5" r:id="rId5"/>
     <sheet name="Max Z" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -99,6 +66,9 @@
     <t>capacity</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>commodity</t>
   </si>
   <si>
@@ -151,9 +121,6 @@
   </si>
   <si>
     <t>flow[instagram,c,e]</t>
-  </si>
-  <si>
-    <t>deno</t>
   </si>
 </sst>
 </file>
@@ -518,9 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="221" zoomScaleNormal="221" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -581,13 +546,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="381" zoomScaleNormal="381" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -597,8 +562,11 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -609,7 +577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -620,7 +588,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -631,7 +599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -642,7 +610,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -653,7 +621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -664,7 +632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -675,7 +643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -686,7 +654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -706,25 +674,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScale="298" zoomScaleNormal="298" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView zoomScale="317" zoomScaleNormal="317" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -736,13 +702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="287" zoomScaleNormal="287" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -751,12 +717,12 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -770,7 +736,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -784,7 +750,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -798,7 +764,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -812,7 +778,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -826,7 +792,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -840,7 +806,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -854,7 +820,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -868,7 +834,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -882,7 +848,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -896,7 +862,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -910,7 +876,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -924,7 +890,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -938,7 +904,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -952,7 +918,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -966,7 +932,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -980,7 +946,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -994,7 +960,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1013,44 +979,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1073,7 +1033,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1096,7 +1056,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1119,7 +1079,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1137,12 +1097,12 @@
         <v>672</v>
       </c>
       <c r="G5">
-        <v>5.95238095238095E-2</v>
+        <v>5.9523809523809521E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1165,7 +1125,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1188,7 +1148,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1211,7 +1171,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1234,7 +1194,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1257,7 +1217,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1280,7 +1240,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1303,7 +1263,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1326,7 +1286,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1349,7 +1309,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1372,7 +1332,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1395,7 +1355,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1418,7 +1378,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1441,7 +1401,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1460,12 +1420,6 @@
       </c>
       <c r="G19">
         <v>1.785714285714286E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">SUMPRODUCT(ABS(C2:C19),G2:G19)</f>
-        <v>2.0212275014172336</v>
       </c>
     </row>
   </sheetData>
@@ -1475,267 +1429,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="393" zoomScaleNormal="393" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.17113095238095241</v>
       </c>
-      <c r="D2">
-        <v>0.6696428571428571</v>
-      </c>
-      <c r="E2">
-        <f>ABS(D2)</f>
-        <v>0.6696428571428571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1.9568452380952379</v>
       </c>
-      <c r="D3">
-        <v>-0.29761904761904762</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E17" si="0">ABS(D3)</f>
-        <v>0.29761904761904762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>1.004464285714286</v>
       </c>
-      <c r="D4">
-        <v>1.785714285714286</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.785714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>0.37202380952380948</v>
       </c>
-      <c r="D5">
-        <v>-1.785714285714286</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1.785714285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>3.2366071428571428</v>
       </c>
-      <c r="D6">
-        <v>-0.37202380952380948</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.37202380952380948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1.785714285714286</v>
       </c>
-      <c r="D7">
-        <v>-0.40922619047619052</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.40922619047619052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2.254464285714286</v>
       </c>
-      <c r="D8">
-        <v>-0.17113095238095241</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.17113095238095241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>3.2098214285714288</v>
       </c>
-      <c r="D9">
-        <v>-2.0089285714285712</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2.0089285714285712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>3.7202380952380952E-2</v>
-      </c>
-      <c r="D10">
-        <v>-0.50595238095238093</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.50595238095238093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <v>2.916666666666667</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>2.916666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12">
-        <v>-4.0625</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13">
-        <v>3.2738095238095242</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>3.2738095238095242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <v>-0.46875</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <v>-3.7202380952380952E-2</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>3.7202380952380952E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <v>-2.6785714285714281E-2</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>2.6785714285714281E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17">
-        <v>-1.785714285714286</v>
-      </c>
-      <c r="E17">
-        <f>ABS(D17)</f>
-        <v>1.785714285714286</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <v>-4.0625</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E19" si="1">ABS(D18)</f>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <v>-0.9821428571428571</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.9821428571428571</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <f>SUM(E2:E19)</f>
-        <v>25.62202380952381</v>
       </c>
     </row>
   </sheetData>
